--- a/docs/03 Organisatorisches/Zeiterfassung.xlsx
+++ b/docs/03 Organisatorisches/Zeiterfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20235"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>PSP-Code</t>
+  </si>
+  <si>
+    <t>Brainstorming, telefonat mit Mejdin</t>
+  </si>
+  <si>
+    <t>Mindmap Inputs</t>
+  </si>
+  <si>
+    <t>Initiale Projektdokumentation</t>
   </si>
 </sst>
 </file>
@@ -181,10 +190,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -224,8 +233,8 @@
     <tableColumn id="1" name="Tätigkeit" dataDxfId="4"/>
     <tableColumn id="2" name="Wer" dataDxfId="3"/>
     <tableColumn id="3" name="Datum" dataDxfId="2"/>
-    <tableColumn id="5" name="PSP-Code" dataDxfId="0"/>
-    <tableColumn id="4" name="(In Stunden)Zeit" dataDxfId="1"/>
+    <tableColumn id="5" name="PSP-Code" dataDxfId="1"/>
+    <tableColumn id="4" name="(In Stunden)Zeit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,8 +587,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42245</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>42246</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42246</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -667,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>

--- a/docs/03 Organisatorisches/Zeiterfassung.xlsx
+++ b/docs/03 Organisatorisches/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Initiale Projektdokumentation</t>
+  </si>
+  <si>
+    <t>Pflichtenheft sowie Phasenplan arbeiten</t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +633,34 @@
       </c>
       <c r="F6" s="1">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>42249</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42258</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">

--- a/docs/03 Organisatorisches/Zeiterfassung.xlsx
+++ b/docs/03 Organisatorisches/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Review</t>
+  </si>
+  <si>
+    <t>PSP Draf, Ausserorderntliche Planung</t>
+  </si>
+  <si>
+    <t>Grob Planung - Lastenhef Reviews</t>
   </si>
 </sst>
 </file>
@@ -233,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B1:F100" totalsRowShown="0" headerRowBorderDxfId="5">
-  <autoFilter ref="B1:F100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B1:F101" totalsRowShown="0" headerRowBorderDxfId="5">
+  <autoFilter ref="B1:F101"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Tätigkeit" dataDxfId="4"/>
     <tableColumn id="2" name="Wer" dataDxfId="3"/>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,20 +669,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42259</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42260</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -686,6 +717,9 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B4:E79">
@@ -693,7 +727,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C101">
       <formula1>Entwickler</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/03 Organisatorisches/Zeiterfassung.xlsx
+++ b/docs/03 Organisatorisches/Zeiterfassung.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zeiterfassung!$B$1:$F$1</definedName>
     <definedName name="Entwickler">Projektorganisation!$A$2:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Mockups</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>PSP-Code</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Grob Planung - Lastenhef Reviews</t>
+  </si>
+  <si>
+    <t>Lösungsvarianten ausarbeiten</t>
   </si>
 </sst>
 </file>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -577,10 +577,10 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="4">
+        <v>42233</v>
+      </c>
+      <c r="F2" s="1">
         <v>10</v>
       </c>
     </row>
@@ -601,7 +601,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -695,6 +695,34 @@
       </c>
       <c r="F10" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42273</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42272</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">

--- a/docs/03 Organisatorisches/Zeiterfassung.xlsx
+++ b/docs/03 Organisatorisches/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Lösungsvarianten ausarbeiten</t>
+  </si>
+  <si>
+    <t>Projektumfang</t>
+  </si>
+  <si>
+    <t>Abgrenzung</t>
+  </si>
+  <si>
+    <t>Information &amp; Kommunikation</t>
+  </si>
+  <si>
+    <t>Lösungsvariante 2 - RIA Prototyp</t>
+  </si>
+  <si>
+    <t>Realisierung Funktionaler Anforderungen</t>
+  </si>
+  <si>
+    <t>Merge Pflichtenheft &amp; Lastenheft - Review Denis</t>
   </si>
 </sst>
 </file>
@@ -119,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +148,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -162,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -186,6 +210,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -542,7 +575,7 @@
   <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,28 +758,123 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>42299</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>42300</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>42304</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>42305</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>42308</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>42309</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42309</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
@@ -755,7 +883,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12 C19:C101 D13:D18">
       <formula1>Entwickler</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/03 Organisatorisches/Zeiterfassung.xlsx
+++ b/docs/03 Organisatorisches/Zeiterfassung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Zeiterfassung!$B$1:$F$1</definedName>
     <definedName name="Entwickler">Projektorganisation!$A$2:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>Merge Pflichtenheft &amp; Lastenheft - Review Denis</t>
+  </si>
+  <si>
+    <t>Mindmap erstellen</t>
+  </si>
+  <si>
+    <t>Risiken</t>
+  </si>
+  <si>
+    <t>Brainstorming, telefonat mit Tobias</t>
+  </si>
+  <si>
+    <t>Projektauftrag - Lastenheft</t>
+  </si>
+  <si>
+    <t>Lösungsvariante 2 &amp; 3</t>
   </si>
 </sst>
 </file>
@@ -227,10 +242,10 @@
     <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -272,8 +287,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B1:F101" totalsRowShown="0" headerRowBorderDxfId="5">
-  <autoFilter ref="B1:F101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B1:F107" totalsRowShown="0" headerRowBorderDxfId="5">
+  <autoFilter ref="B1:F107"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Tätigkeit" dataDxfId="4"/>
     <tableColumn id="2" name="Wer" dataDxfId="3"/>
@@ -286,9 +301,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,9 +341,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F28"/>
+  <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,264 +633,384 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>42242</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42241</v>
+      </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
-        <v>42245</v>
-      </c>
+      <c r="D4" s="5">
+        <v>42242</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="1">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
-        <v>42246</v>
+        <v>42245</v>
       </c>
       <c r="F5" s="1">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>42246</v>
+        <v>42245</v>
       </c>
       <c r="F6" s="1">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>42249</v>
+        <v>42245</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>42258</v>
+        <v>42246</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>16</v>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4">
-        <v>42259</v>
+        <v>42246</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4">
-        <v>42260</v>
+        <v>42248</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
-        <v>42273</v>
+        <v>42249</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>42272</v>
+        <v>42252</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>42299</v>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>42257</v>
       </c>
       <c r="F13" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>42300</v>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42258</v>
       </c>
       <c r="F14" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>42304</v>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42259</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>42305</v>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42260</v>
       </c>
       <c r="F16" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>42308</v>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42273</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
-        <v>42309</v>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42272</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42309</v>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>42299</v>
       </c>
       <c r="F19" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42300</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>42304</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="B22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>42305</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>42308</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>42309</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>42309</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5">
+        <v>42309</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5">
+        <v>42310</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5">
+        <v>42311</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B4:E79">
@@ -883,7 +1018,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12 C19:C101 D13:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D24 C2:C18 C25:C107 D26:D28">
       <formula1>Entwickler</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/03 Organisatorisches/Zeiterfassung.xlsx
+++ b/docs/03 Organisatorisches/Zeiterfassung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Lösungsvariante 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Klassendiagram</t>
+  </si>
+  <si>
+    <t>Java Klassen</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
   </si>
 </sst>
 </file>
@@ -590,7 +599,7 @@
   <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,18 +1007,76 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4">
+        <v>42315</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>42316</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>42317</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4">
+        <v>42318</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4">
+        <v>42320</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
   </sheetData>
@@ -1018,7 +1085,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D24 C2:C18 C25:C107 D26:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D24 C2:C18 D26:D28 C25:C107">
       <formula1>Entwickler</formula1>
     </dataValidation>
   </dataValidations>
